--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus20\Documents\GitHub\RS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D659FC9-228F-4900-B26E-5542965F65EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D8433A-2CBA-462E-B50F-B8145DE394B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
